--- a/xlsx/a69_f20UPPachuca.xlsx
+++ b/xlsx/a69_f20UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Desktop\3er Trimestre Fracciones faltantes\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\MAYDELI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8655"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -1030,7 +1030,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1123,6 +1123,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1781,10 +1782,10 @@
         <v>2020</v>
       </c>
       <c r="B8" s="18">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C8" s="18">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>253</v>
@@ -1847,10 +1848,10 @@
         <v>231</v>
       </c>
       <c r="X8" s="5">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="Y8" s="5">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="Z8" s="6"/>
     </row>
@@ -1859,10 +1860,10 @@
         <v>2020</v>
       </c>
       <c r="B9" s="18">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C9" s="18">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>259</v>
@@ -1925,10 +1926,10 @@
         <v>231</v>
       </c>
       <c r="X9" s="5">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="Y9" s="5">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="Z9" s="6"/>
     </row>
@@ -1937,10 +1938,10 @@
         <v>2020</v>
       </c>
       <c r="B10" s="18">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C10" s="18">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>260</v>
@@ -2003,10 +2004,10 @@
         <v>231</v>
       </c>
       <c r="X10" s="5">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="Y10" s="5">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="Z10" s="6"/>
     </row>
@@ -2015,10 +2016,10 @@
         <v>2020</v>
       </c>
       <c r="B11" s="18">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C11" s="18">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>261</v>
@@ -2081,10 +2082,10 @@
         <v>231</v>
       </c>
       <c r="X11" s="5">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="Y11" s="5">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="Z11" s="6"/>
     </row>
@@ -2093,10 +2094,10 @@
         <v>2020</v>
       </c>
       <c r="B12" s="18">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C12" s="18">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>265</v>
@@ -2157,10 +2158,10 @@
         <v>231</v>
       </c>
       <c r="X12" s="5">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="Y12" s="5">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="Z12" s="6"/>
     </row>
@@ -2206,168 +2207,171 @@
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="A33" sqref="A33:XFD170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="34" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="34" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="34" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="34" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="34" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="34" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="34" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="34" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="34" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="34" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="34" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="34" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="34" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="34" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="34" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="34" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="34" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="34" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="34" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="34" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="34" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="34" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="34" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="34" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="34" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="34" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="34" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="34" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="34" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="34" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="34" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2381,7 +2385,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2722,137 +2726,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="34" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="34" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="34" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="34" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="34" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="34" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="34" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="34" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="34" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="34" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="34" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="34" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="34" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="34" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="34" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="34" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="34" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="34" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="34" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="34" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="34" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="34" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="34" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="34" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="34" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2868,209 +2877,212 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="34" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="34" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="34" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="34" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="34" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="34" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="34" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="34" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="34" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="34" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="34" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="34" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="34" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="34" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="34" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="34" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="34" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="34" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="34" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="34" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="34" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="34" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="34" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="34" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="34" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="34" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="34" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="34" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="34" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="34" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="34" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="34" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="34" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="34" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="34" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="34" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="34" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="34" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="34" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="34" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="34" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3086,164 +3098,167 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="34" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="34" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="34" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="34" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="34" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="34" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="34" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="34" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="34" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="34" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="34" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="34" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="34" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="34" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="34" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="34" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="34" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="34" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="34" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="34" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="34" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="34" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="34" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="34" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="34" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="34" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="34" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="34" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="34" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="34" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="34" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3257,7 +3272,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3301,8 +3316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="L3" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3555,137 +3570,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="34" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="34" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="34" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="34" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="34" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="34" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="34" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="34" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="34" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="34" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="34" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="34" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="34" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="34" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="34" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="34" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="34" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="34" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="34" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="34" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="34" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="34" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="34" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="34" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="34" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3701,209 +3721,212 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="34" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="34" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="34" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="34" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="34" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="34" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="34" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="34" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="34" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="34" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="34" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="34" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="34" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="34" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="34" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="34" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="34" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="34" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="34" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="34" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="34" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="34" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="34" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="34" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="34" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="34" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="34" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="34" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="34" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="34" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="34" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="34" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="34" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="34" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="34" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="34" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="34" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="34" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="34" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="34" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="34" t="s">
         <v>169</v>
       </c>
     </row>

--- a/xlsx/a69_f20UPPachuca.xlsx
+++ b/xlsx/a69_f20UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\MAYDELI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP 1er Trimestre SIPOT 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="290">
   <si>
     <t>44251</t>
   </si>
@@ -741,12 +741,6 @@
     <t>Dirección de Planeación (UPP)</t>
   </si>
   <si>
-    <t>Informar a los estudiantes interesados en participar en el proceso de selección para la obtención de alguna de las becas que otorga la Universidad, así como de los requisitos reglamentarios y académicos que rigen para la obtención de la misma.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presencial </t>
-  </si>
-  <si>
     <t xml:space="preserve">Reglamento de Becas Institucionales para becas internas,  Reglas de Operación del Programa Nacional de Becas para el ejercicio fiscal vigente, para la gestión de Becas externas.
 </t>
   </si>
@@ -754,15 +748,9 @@
     <t>Servicios Escolares, de la Universidad Politécnica de Pachuca</t>
   </si>
   <si>
-    <t>Sin Nombre</t>
-  </si>
-  <si>
     <t>Sin número</t>
   </si>
   <si>
-    <t>Carretera Pachuca-Cd Sahagún, Km. 20, Rancho Luna, Exhacienda de Santa. Bárbara, Municipiode Zempoala Hidalgo</t>
-  </si>
-  <si>
     <t>Zempoala</t>
   </si>
   <si>
@@ -784,112 +772,185 @@
     <t>Institución Bancaria BANORTE</t>
   </si>
   <si>
-    <t>5477510 ext. 2265</t>
-  </si>
-  <si>
-    <t>15 dias</t>
-  </si>
-  <si>
     <t>No hay domicilio en el extranjero</t>
   </si>
   <si>
     <t>Lunes a viernes de 8:00 a. m. a 16:00 horas</t>
   </si>
   <si>
-    <t>https://ruts.hidalgo.gob.mx/ver/6614</t>
-  </si>
-  <si>
-    <t>https://ruts.hidalgo.gob.mx/ver/948</t>
+    <t>Órgano Interno de Control en la Universidad Politécnica de Pachuca 
+isela.espinosa@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>No tiene</t>
   </si>
   <si>
     <t>https://ruts.hidalgo.gob.mx/ver/944</t>
   </si>
   <si>
-    <t xml:space="preserve">Inscripción 
-Ingeniería/licenciatura y Terapia Física </t>
-  </si>
-  <si>
     <t>https://ruts-admin.hidalgo.gob.mx/archivos/1562090619676nuevo.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Un cuatrimestre o semestre </t>
   </si>
   <si>
-    <t>Cuotas y Tarifas 2020</t>
-  </si>
-  <si>
     <t>Reglamento del Nivel Licenciatura de la Universidad Politécnica de Pachuca. Título Segundo, Del Ingreso, Capítulo ll De la ingreso las y los estudiantes, Artículo 16</t>
   </si>
   <si>
     <t>Afirmativa Ficta</t>
   </si>
   <si>
-    <t xml:space="preserve">Inscripción 
-Lic. Médico Cirujano </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inscripción 
-Nivel Posgrado </t>
-  </si>
-  <si>
-    <t>Inscripción 
-Maestría en enseñanza de las Ciencias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un semestre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un cuatrimestre  </t>
-  </si>
-  <si>
     <t>Lunes a viernes de 9:00 a.m. a 17:00 horas</t>
   </si>
   <si>
     <t>Becas Institucionales</t>
   </si>
   <si>
+    <t xml:space="preserve">http://www.upp.edu.mx/becas/
+</t>
+  </si>
+  <si>
+    <t>Los campos que se encuentran en blanco, no aplican para este trámite.
+Trámite vigente para el ejercicio 2021.</t>
+  </si>
+  <si>
+    <t>Inscripción</t>
+  </si>
+  <si>
+    <t>Aspirante aceptado/a que desea ser inscrito oficialmente en la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
+    <t>Informar los requisitos y el proceso que deberán seguir las y los aspirantes que son aceptados que desean inscribirse (cuatrimestral o semestral).</t>
+  </si>
+  <si>
+    <t>En linea</t>
+  </si>
+  <si>
+    <t>Ingeniería/licenciatura y Terapia Física 
+1.- Formato de inscripción (Ver formato anexo)
+2.- Acta de nacimiento.
+3.- Certificado de Bachillerato con promedio mínimo de 7.0 (en caso de no contar con el certificado de Nivel Medio Superior presentar constancia de conclusión de bachillerato con promedio la cual deberá mencionar que el certificado se encuentra en trámite)
+4.- Clave Única de Registro de Población  (CURP).
+5.- Certificado médico con grupo sanguíneo.
+6. Ingresar a la página web de la Universidad (www.upp.edu.mx), dar click en Sistema Integral para imprimir formas de pago por triplicado y dirigirse a cualquier sucursal, BANORTE del país.
+7. Identificación oficial vigente
+Nivel Posgrado 
+1.- Acta de nacimiento.
+2.- Certificado del nivel educativo inmediato anterior con un promedio mínimo de 8.0 (en caso de no contar con el certificado de Nivel Inmediato Anterior presentar una  constancia de título en trámite la cual deberá mencionar el promedio final ).
+3.- Copia digital de título profesional o grado académico (en caso de no contar con el Título Profesional  presentar una  constancia de título en trámite).
+4.- Copia digital de cédula profesional  (en caso de no contar con la cédula Profesional  presentar una  constancia de cédula Profesional  en trámite).
+5.- Certificado médico reciente con grupo sanguíneo.
+6.- Clave Única de Registro de Población  (CURP).
+7.- Copia digital de la carta de aceptación emitida por la coordinación del programa educativo correspondiente.
+8.- Constancia de Vigencia de Derechos del IMSS.
+9.- Copia digital de identificación oficial con fotografía vigente.
+11.- Comprobante de pago de inscripción.</t>
+  </si>
+  <si>
+    <t>30 minutos</t>
+  </si>
+  <si>
+    <t>crystycortes@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>5477510 ext. 2264</t>
+  </si>
+  <si>
+    <t>Santa Barbara</t>
+  </si>
+  <si>
+    <t>Pachuca-Cd. Sahagún</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Santa. Bárbara</t>
+  </si>
+  <si>
+    <t>Cuotas y Tarifas del Organismo Descentralizado de la Administración Pública Estatal denominado “Universidad Politécnica de Pachuca”, para el Ejercicio Fiscal del año 2021.</t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/serviciosescolares/</t>
+  </si>
+  <si>
+    <t>Estudiantes de la Universidad Politécnica de Pachuca.</t>
+  </si>
+  <si>
+    <t>Informar a las y los estudiantes interesados en participar en el proceso de selección para la obtención de alguna de las becas que otorga la Universidad, así como de los requisitos para la obtención de la misma.</t>
+  </si>
+  <si>
+    <t>https://ruts.hidalgo.gob.mx/ver/8893</t>
+  </si>
+  <si>
+    <t>1.- Solicitud de beca
+2.- Constancia de no adeudo
+3.- Formato socio-económico</t>
+  </si>
+  <si>
+    <t>7 días</t>
+  </si>
+  <si>
+    <t>4 meses  o 6 meses según sea el caso</t>
+  </si>
+  <si>
+    <t>https://ruts.hidalgo.gob.mx/8893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estadía Profesional </t>
+  </si>
+  <si>
+    <t>Estudiantes de décimo cuatrimestre que ha integrado los créditos al 100%.</t>
+  </si>
+  <si>
+    <t>Última asignatura que desarrollarán estudiantes de décimo cuatrimestre en un ambiente laboral real, para aplicar los conocimientos teóricos.</t>
+  </si>
+  <si>
+    <t>https://ruts.hidalgo.gob.mx/ver/8907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Formato F-VI_EI-01 Solicitud de Estadía 
+2. Carta de interés de la empresa receptora 
+3.Carta de Aceptación de la empresa receptora
+4. Constancia de no adeudo de materias
+5. Constancia con número de seguro facultativo 
+6. Carnet expedido por el IMSS 
+7. Constancia de Acreditación de Servicio Social ó Carta de Terminación
+8. Currículm Vitae 
+9. Carnet o constancia de Actividades Extracurriculares
+10. Carta de Terminación de la Empresa o Institución
+11. Formato F-VI_EI-02 Reportes mensuales (3, 4, 5 o 6 según corresponda)
+12. Formato F-VI_EI-03 Evaluación Final de Asesor Técnico
+13. Pago de Reinscripción.
+</t>
+  </si>
+  <si>
+    <t>6 días hábiles</t>
+  </si>
+  <si>
+    <t>Permanente</t>
+  </si>
+  <si>
+    <t>Estadías</t>
+  </si>
+  <si>
+    <t>estadias@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Horario de Lunes a Viernes de  8:00-16:00 horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 771 54 77 510 ext. 2264</t>
+  </si>
+  <si>
+    <t>Reglamento de Estadía Profesional para Ingenierías y la Licenciatura en Terapia Física.</t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/vinculacion/estadias.php</t>
+  </si>
+  <si>
+    <t>https://ruts.hidalgo.gob.mx/8907</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-1440.00</t>
-  </si>
-  <si>
-    <t>Aspirante aceptado/a que desea ser inscrito oficialmente en la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
-    <t>Informar los requisitos y el proceso a seguir para inscribirse  a las y los aspirantes que son aceptados a través del proceso de admisión cuatrimestral o semestral.</t>
-  </si>
-  <si>
-    <t>Ingeniería/licenciatura y Terapia Física 
-Formato de inscripción (Ver formato anexo),Original y 2 copias de: Acta de nacimiento, Original y 2 copias del Certificado de Bachillerato con promedio mínimo de 7.0 (en caso de no contar con el certificado de Nivel Medio Superior presentar constancia de conclusión de bachillerato con promedio la cual deberá mencionar que el certificado se encuentra en trámite), 3 copias la Clave Única de Registro de Población  (CURP), Certificado médico original con grupo sanguíneo, expedido por una Institución Pública, Ingresar a la página web de la Universidad (www.upp.edu.mx), dar click en Sistema Integral para imprimir formas de pago por triplicado y dirigirse a cualquier sucursal, BANORTE del país, Identificación oficial vigente.
-Nivel Posgrado 
-Original y 2 copias de acta de nacimiento, 2 copias de certificado del nivel educativo inmediato anterior con un promedio mínimo de 8.0 (en caso de no contar con el certificado de Nivel Inmediato Anterior presentar una  constancia de título en trámite la cual deberá mencionar el promedio final ), 2 copias de título profesional o grado académico (en caso de no contar con el Título Profesional  presentar una  constancia de título en trámite), 2 copias de cédula profesional  (en caso de no contar con la cédula Profesional  presentar una  constancia de cédula Profesional  en trámite), Original de certificado médico reciente con grupo sanguíneo, 2 copias de la  Clave Única de Registro de Población  (CURP), 4 fotografías de frente tamaño infantil blanco y negro o a color, de estudio, 1 Copia de la carta de aceptación emitida por la coordinación del programa educativo correspondiente, Constancia de Vigencia de Derechos del IMSS, 1 Copia de identificación oficial con fotografía vigente, Original y 1 copia del comprobante de pago de inscripción.</t>
-  </si>
-  <si>
-    <t>30 minutos</t>
-  </si>
-  <si>
-    <t>Órgano Interno de Control en la Universidad Politécnica de Pachuca 
-crystycortes@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Estudiantes de la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
-    <t>Solicitud de beca
-Constancia de no adeudo
-Formato socio-económico
-Historial académico
-Comprobante de ingresos.
-Constancia de Estudios.
-Carta Compromiso.</t>
-  </si>
-  <si>
-    <t>4 meses  o 6 meses según sea el caso</t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/becas/</t>
-  </si>
-  <si>
-    <t>crystycortes@upp.edu.mx</t>
+1,485.00</t>
   </si>
 </sst>
 </file>
@@ -1030,12 +1091,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1046,8 +1106,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1057,6 +1123,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1076,35 +1148,33 @@
     <xf numFmtId="4" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1112,18 +1182,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1430,10 +1493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="J8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,13 +1509,13 @@
     <col min="6" max="6" width="50.28515625" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="88.28515625" customWidth="1"/>
-    <col min="9" max="9" width="104.5703125" customWidth="1"/>
+    <col min="9" max="9" width="106.85546875" customWidth="1"/>
     <col min="10" max="10" width="85" customWidth="1"/>
     <col min="11" max="11" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="33.42578125" customWidth="1"/>
     <col min="14" max="14" width="28.42578125" customWidth="1"/>
-    <col min="15" max="15" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31" customWidth="1"/>
     <col min="16" max="16" width="29.42578125" customWidth="1"/>
     <col min="17" max="17" width="50.7109375" customWidth="1"/>
     <col min="18" max="18" width="39.42578125" customWidth="1"/>
@@ -1472,40 +1535,39 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="27" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="32" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="33"/>
       <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="30" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
     </row>
     <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1668,537 +1730,381 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
     </row>
     <row r="7" spans="1:26" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="R7" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="S7" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="T7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="U7" s="14" t="s">
+      <c r="U7" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="V7" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="W7" s="14" t="s">
+      <c r="W7" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="X7" s="14" t="s">
+      <c r="X7" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="Y7" s="14" t="s">
+      <c r="Y7" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="Z7" s="14" t="s">
+      <c r="Z7" s="17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="325.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="18">
-        <v>44105</v>
-      </c>
-      <c r="C8" s="18">
-        <v>44196</v>
-      </c>
-      <c r="D8" s="19" t="s">
+    <row r="8" spans="1:26" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="U8" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="X8" s="4">
+        <v>44298</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>44298</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="M9" s="3">
+        <v>2</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="P9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="U9" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="V9" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="X9" s="4">
+        <v>44298</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>44298</v>
+      </c>
+      <c r="Z9" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="K8" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="M8" s="4">
+    </row>
+    <row r="10" spans="1:26" ht="239.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="M10" s="27">
+        <v>3</v>
+      </c>
+      <c r="N10" s="27">
+        <v>0</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="P10" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="S10" s="3">
         <v>1</v>
       </c>
-      <c r="N8" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="P8" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="S8" s="4">
-        <v>1</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="V8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="W8" s="4" t="s">
+      <c r="T10" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="U10" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="V10" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="W10" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="X8" s="5">
-        <v>44206</v>
-      </c>
-      <c r="Y8" s="5">
-        <v>44206</v>
-      </c>
-      <c r="Z8" s="6"/>
-    </row>
-    <row r="9" spans="1:26" s="3" customFormat="1" ht="323.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="18">
-        <v>44105</v>
-      </c>
-      <c r="C9" s="18">
-        <v>44196</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="J9" s="8" t="s">
+      <c r="X10" s="4">
+        <v>44298</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>44298</v>
+      </c>
+      <c r="Z10" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="K9" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="M9" s="4">
-        <v>1</v>
-      </c>
-      <c r="N9" s="17">
-        <v>3599</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="P9" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="S9" s="4">
-        <v>1</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="U9" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="V9" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="X9" s="5">
-        <v>44206</v>
-      </c>
-      <c r="Y9" s="5">
-        <v>44206</v>
-      </c>
-      <c r="Z9" s="6"/>
-    </row>
-    <row r="10" spans="1:26" s="3" customFormat="1" ht="324.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>2020</v>
-      </c>
-      <c r="B10" s="18">
-        <v>44105</v>
-      </c>
-      <c r="C10" s="18">
-        <v>44196</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="M10" s="4">
-        <v>1</v>
-      </c>
-      <c r="N10" s="17">
-        <v>2879</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="P10" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="S10" s="4">
-        <v>1</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="U10" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="V10" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="X10" s="5">
-        <v>44206</v>
-      </c>
-      <c r="Y10" s="5">
-        <v>44206</v>
-      </c>
-      <c r="Z10" s="6"/>
-    </row>
-    <row r="11" spans="1:26" s="3" customFormat="1" ht="315.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>2020</v>
-      </c>
-      <c r="B11" s="18">
-        <v>44105</v>
-      </c>
-      <c r="C11" s="18">
-        <v>44196</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="M11" s="4">
-        <v>1</v>
-      </c>
-      <c r="N11" s="17">
-        <v>6169</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="P11" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="S11" s="4">
-        <v>1</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="U11" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="V11" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="X11" s="5">
-        <v>44206</v>
-      </c>
-      <c r="Y11" s="5">
-        <v>44206</v>
-      </c>
-      <c r="Z11" s="6"/>
-    </row>
-    <row r="12" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>2020</v>
-      </c>
-      <c r="B12" s="18">
-        <v>44105</v>
-      </c>
-      <c r="C12" s="18">
-        <v>44196</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="M12" s="4">
-        <v>2</v>
-      </c>
-      <c r="N12" s="11">
-        <v>0</v>
-      </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="S12" s="4">
-        <v>1</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="U12" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="V12" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="X12" s="5">
-        <v>44206</v>
-      </c>
-      <c r="Y12" s="5">
-        <v>44206</v>
-      </c>
-      <c r="Z12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A6:Z6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G2:J2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="U8" r:id="rId1"/>
-    <hyperlink ref="H8" r:id="rId2"/>
-    <hyperlink ref="J8" r:id="rId3"/>
-    <hyperlink ref="V8" r:id="rId4"/>
-    <hyperlink ref="U11" r:id="rId5"/>
-    <hyperlink ref="H11" r:id="rId6"/>
-    <hyperlink ref="V11" r:id="rId7"/>
+    <hyperlink ref="V9" r:id="rId1"/>
+    <hyperlink ref="U8" r:id="rId2"/>
+    <hyperlink ref="H8" r:id="rId3"/>
+    <hyperlink ref="J8" r:id="rId4"/>
+    <hyperlink ref="V8" r:id="rId5"/>
+    <hyperlink ref="H9" r:id="rId6"/>
+    <hyperlink ref="J9" r:id="rId7"/>
     <hyperlink ref="U9" r:id="rId8"/>
-    <hyperlink ref="H9" r:id="rId9"/>
-    <hyperlink ref="V9" r:id="rId10"/>
+    <hyperlink ref="H10" r:id="rId9"/>
+    <hyperlink ref="J10" r:id="rId10"/>
     <hyperlink ref="U10" r:id="rId11"/>
-    <hyperlink ref="H10" r:id="rId12"/>
-    <hyperlink ref="V10" r:id="rId13"/>
-    <hyperlink ref="J9" r:id="rId14"/>
-    <hyperlink ref="J10" r:id="rId15"/>
-    <hyperlink ref="J11" r:id="rId16"/>
-    <hyperlink ref="H12" r:id="rId17"/>
-    <hyperlink ref="J12" r:id="rId18"/>
-    <hyperlink ref="V12" r:id="rId19"/>
-    <hyperlink ref="U12" r:id="rId20"/>
+    <hyperlink ref="V10" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -2207,171 +2113,168 @@
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD170"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="A26" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="A27" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="A30" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
+      <c r="A31" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
+      <c r="A32" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2382,10 +2285,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2397,7 +2300,7 @@
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="90" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" customWidth="1"/>
     <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
@@ -2583,142 +2486,203 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="15">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="I4" s="15">
+        <v>1</v>
+      </c>
+      <c r="J4" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="K4" s="15">
+        <v>83</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="M4" s="15">
+        <v>13</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="O4" s="3">
+        <v>43830</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="D5" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I4" s="12">
+      <c r="H5" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="I5" s="15">
         <v>1</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J5" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="K5" s="15">
+        <v>83</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="M5" s="15">
+        <v>13</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="O5" s="3">
+        <v>43830</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="K4" s="12">
-        <v>83</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="M4" s="12">
-        <v>13</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="O4" s="4">
-        <v>43830</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R5" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="R4" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I5" s="12">
-        <v>1</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="K5" s="12">
-        <v>83</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="M5" s="12">
-        <v>13</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="O5" s="4">
-        <v>43830</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>264</v>
+      <c r="S5" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
+    <row r="6" spans="1:21" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
+        <v>3</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="I6" s="15">
+        <v>1</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="K6" s="15">
+        <v>84</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="M6" s="15">
+        <v>13</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="O6" s="3">
+        <v>43830</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q6" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="R6" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="S6" s="31" t="s">
+        <v>284</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N5">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N6">
       <formula1>Hidden_3_Tabla_35071013</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G5">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G6">
       <formula1>Hidden_2_Tabla_3507106</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C4:C5">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C4:C6">
       <formula1>Hidden_1_Tabla_3507102</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="R4" r:id="rId1"/>
     <hyperlink ref="R5" r:id="rId2"/>
+    <hyperlink ref="R6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2726,142 +2690,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="A26" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2877,212 +2836,209 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="A26" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="A27" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="A30" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
+      <c r="A31" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
+      <c r="A32" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
+      <c r="A38" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="34" t="s">
+      <c r="A39" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
+      <c r="A40" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
+      <c r="A41" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3098,167 +3054,164 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="A26" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="A27" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="A30" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
+      <c r="A31" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
+      <c r="A32" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3272,7 +3225,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3300,11 +3253,11 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="15">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>245</v>
+      <c r="B4" s="15" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -3316,8 +3269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView topLeftCell="L3" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3494,57 +3447,57 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="I4" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="L4" s="4">
+      <c r="K4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="L4" s="3">
         <v>83</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="M4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N4" s="3">
         <v>13</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <v>43830</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>248</v>
+      <c r="Q4" s="3" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3570,142 +3523,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="A26" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3721,212 +3669,209 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="A26" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="A27" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="A30" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
+      <c r="A31" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
+      <c r="A32" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
+      <c r="A38" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="34" t="s">
+      <c r="A39" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
+      <c r="A40" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
+      <c r="A41" t="s">
         <v>169</v>
       </c>
     </row>

--- a/xlsx/a69_f20UPPachuca.xlsx
+++ b/xlsx/a69_f20UPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP 1er Trimestre SIPOT 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\Recepción 2do Trimestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -803,18 +803,12 @@
     <t>Lunes a viernes de 9:00 a.m. a 17:00 horas</t>
   </si>
   <si>
-    <t>Becas Institucionales</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://www.upp.edu.mx/becas/
 </t>
   </si>
   <si>
     <t>Los campos que se encuentran en blanco, no aplican para este trámite.
 Trámite vigente para el ejercicio 2021.</t>
-  </si>
-  <si>
-    <t>Inscripción</t>
   </si>
   <si>
     <t>Aspirante aceptado/a que desea ser inscrito oficialmente en la Universidad Politécnica de Pachuca</t>
@@ -894,9 +888,6 @@
     <t>https://ruts.hidalgo.gob.mx/8893</t>
   </si>
   <si>
-    <t xml:space="preserve">Estadía Profesional </t>
-  </si>
-  <si>
     <t>Estudiantes de décimo cuatrimestre que ha integrado los créditos al 100%.</t>
   </si>
   <si>
@@ -951,6 +942,15 @@
   <si>
     <t xml:space="preserve">
 1,485.00</t>
+  </si>
+  <si>
+    <t>Estadía Profesional UPP</t>
+  </si>
+  <si>
+    <t>Becas Institucionales UPP</t>
+  </si>
+  <si>
+    <t>Inscripción UPP</t>
   </si>
 </sst>
 </file>
@@ -1182,10 +1182,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1495,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,34 +1844,34 @@
         <v>2021</v>
       </c>
       <c r="B8" s="4">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C8" s="4">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="G8" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>246</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>247</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>248</v>
@@ -1880,10 +1880,10 @@
         <v>1</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P8" s="3">
         <v>1</v>
@@ -1901,7 +1901,7 @@
         <v>244</v>
       </c>
       <c r="U8" s="22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="V8" s="7" t="s">
         <v>246</v>
@@ -1910,13 +1910,13 @@
         <v>231</v>
       </c>
       <c r="X8" s="4">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="Y8" s="4">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
@@ -1924,37 +1924,37 @@
         <v>2021</v>
       </c>
       <c r="B9" s="4">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C9" s="4">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="E9" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="I9" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="H9" s="23" t="s">
+      <c r="J9" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="L9" s="10" t="s">
         <v>271</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>273</v>
       </c>
       <c r="M9" s="3">
         <v>2</v>
@@ -1981,22 +1981,22 @@
         <v>244</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="V9" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>231</v>
       </c>
       <c r="X9" s="4">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="Y9" s="4">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="239.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2004,37 +2004,37 @@
         <v>2021</v>
       </c>
       <c r="B10" s="4">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C10" s="4">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D10" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="I10" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="J10" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="K10" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="H10" s="23" t="s">
+      <c r="L10" s="24" t="s">
         <v>278</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>281</v>
       </c>
       <c r="M10" s="27">
         <v>3</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="25" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>250</v>
@@ -2061,22 +2061,22 @@
         <v>244</v>
       </c>
       <c r="U10" s="28" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="V10" s="22" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>231</v>
       </c>
       <c r="X10" s="4">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="Y10" s="4">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2496,7 +2496,7 @@
         <v>106</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>234</v>
@@ -2508,7 +2508,7 @@
         <v>144</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I4" s="15">
         <v>1</v>
@@ -2555,7 +2555,7 @@
         <v>106</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>234</v>
@@ -2567,7 +2567,7 @@
         <v>144</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I5" s="15">
         <v>1</v>
@@ -2610,13 +2610,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>106</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>234</v>
@@ -2628,7 +2628,7 @@
         <v>144</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I6" s="15">
         <v>1</v>
@@ -2655,13 +2655,13 @@
         <v>242</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="R6" s="30" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="S6" s="31" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3452,16 +3452,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>106</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>234</v>
@@ -3473,7 +3473,7 @@
         <v>144</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>

--- a/xlsx/a69_f20UPPachuca.xlsx
+++ b/xlsx/a69_f20UPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\Recepción 2do Trimestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -741,10 +741,6 @@
     <t>Dirección de Planeación (UPP)</t>
   </si>
   <si>
-    <t xml:space="preserve">Reglamento de Becas Institucionales para becas internas,  Reglas de Operación del Programa Nacional de Becas para el ejercicio fiscal vigente, para la gestión de Becas externas.
-</t>
-  </si>
-  <si>
     <t>Servicios Escolares, de la Universidad Politécnica de Pachuca</t>
   </si>
   <si>
@@ -801,10 +797,6 @@
   </si>
   <si>
     <t>Lunes a viernes de 9:00 a.m. a 17:00 horas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.upp.edu.mx/becas/
-</t>
   </si>
   <si>
     <t>Los campos que se encuentran en blanco, no aplican para este trámite.
@@ -951,6 +943,12 @@
   </si>
   <si>
     <t>Inscripción UPP</t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/becas/</t>
+  </si>
+  <si>
+    <t>Reglamento de Becas Institucionales para becas internas,  Reglas de Operación del Programa Nacional de Becas para el ejercicio fiscal vigente, para la gestión de Becas externas.</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1089,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1106,14 +1104,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1123,12 +1115,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1148,9 +1134,6 @@
     <xf numFmtId="4" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1160,21 +1143,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1496,7 +1492,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,39 +1531,39 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="32" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="32" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="35" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
     </row>
     <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1730,112 +1726,112 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
     </row>
     <row r="7" spans="1:26" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="O7" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Q7" s="17" t="s">
+      <c r="Q7" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R7" s="17" t="s">
+      <c r="R7" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="S7" s="17" t="s">
+      <c r="S7" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="T7" s="17" t="s">
+      <c r="T7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="U7" s="17" t="s">
+      <c r="U7" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="V7" s="17" t="s">
+      <c r="V7" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="W7" s="17" t="s">
+      <c r="W7" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="X7" s="17" t="s">
+      <c r="X7" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="Y7" s="17" t="s">
+      <c r="Y7" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="Z7" s="17" t="s">
+      <c r="Z7" s="13" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1844,79 +1840,79 @@
         <v>2021</v>
       </c>
       <c r="B8" s="4">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C8" s="4">
-        <v>44377</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E8" s="6" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="H8" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="I8" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="J8" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K8" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="L8" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>248</v>
       </c>
       <c r="M8" s="3">
         <v>1</v>
       </c>
-      <c r="N8" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>264</v>
+      <c r="N8" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>262</v>
       </c>
       <c r="P8" s="3">
         <v>1</v>
       </c>
-      <c r="Q8" s="20" t="s">
+      <c r="Q8" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="R8" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="S8" s="3">
         <v>1</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="U8" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="V8" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
+      </c>
+      <c r="U8" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>231</v>
       </c>
       <c r="X8" s="4">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="Y8" s="4">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
@@ -1924,79 +1920,79 @@
         <v>2021</v>
       </c>
       <c r="B9" s="4">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C9" s="4">
-        <v>44377</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E9" s="13" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H9" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="I9" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="H9" s="23" t="s">
+      <c r="J9" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="L9" s="8" t="s">
         <v>269</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>271</v>
       </c>
       <c r="M9" s="3">
         <v>2</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="10">
         <v>0</v>
       </c>
-      <c r="O9" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="P9" s="14">
+      <c r="O9" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="P9" s="10">
         <v>0</v>
       </c>
-      <c r="Q9" s="20" t="s">
-        <v>232</v>
+      <c r="Q9" s="28" t="s">
+        <v>289</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S9" s="3">
         <v>1</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="U9" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="V9" s="22" t="s">
-        <v>272</v>
+        <v>243</v>
+      </c>
+      <c r="U9" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="V9" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>231</v>
       </c>
       <c r="X9" s="4">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="Y9" s="4">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="239.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2004,79 +2000,79 @@
         <v>2021</v>
       </c>
       <c r="B10" s="4">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C10" s="4">
-        <v>44377</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="E10" s="25" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="H10" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="I10" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="H10" s="23" t="s">
+      <c r="J10" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="K10" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="L10" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="J10" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="M10" s="27">
+      <c r="M10" s="20">
         <v>3</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="20">
         <v>0</v>
       </c>
-      <c r="O10" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="P10" s="24">
+      <c r="O10" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="P10" s="20">
         <v>0</v>
       </c>
-      <c r="Q10" s="25" t="s">
-        <v>283</v>
+      <c r="Q10" s="19" t="s">
+        <v>281</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S10" s="3">
         <v>1</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="U10" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="V10" s="22" t="s">
-        <v>285</v>
+        <v>243</v>
+      </c>
+      <c r="U10" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="V10" s="17" t="s">
+        <v>283</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>231</v>
       </c>
       <c r="X10" s="4">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="Y10" s="4">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2486,182 +2482,182 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="K4" s="11">
+        <v>83</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="I4" s="15">
-        <v>1</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="K4" s="15">
-        <v>83</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="M4" s="15">
+      <c r="M4" s="11">
         <v>13</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="11" t="s">
         <v>191</v>
       </c>
       <c r="O4" s="3">
         <v>43830</v>
       </c>
       <c r="P4" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="R4" s="16" t="s">
+    </row>
+    <row r="5" spans="1:21" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="11" t="s">
         <v>106</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E5" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="K5" s="11">
+        <v>83</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="I5" s="15">
-        <v>1</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="K5" s="15">
-        <v>83</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="M5" s="15">
+      <c r="M5" s="11">
         <v>13</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="11" t="s">
         <v>191</v>
       </c>
       <c r="O5" s="3">
         <v>43830</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="R5" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="R5" s="16" t="s">
-        <v>240</v>
-      </c>
       <c r="S5" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:21" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
+      <c r="A6" s="21">
         <v>3</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>106</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E6" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="K6" s="11">
+        <v>84</v>
+      </c>
+      <c r="L6" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="I6" s="15">
-        <v>1</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="K6" s="15">
-        <v>84</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="M6" s="15">
+      <c r="M6" s="11">
         <v>13</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="11" t="s">
         <v>191</v>
       </c>
       <c r="O6" s="3">
         <v>43830</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q6" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="R6" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q6" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="S6" s="31" t="s">
-        <v>281</v>
+      <c r="R6" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="S6" s="23" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -3253,11 +3249,11 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>241</v>
+      <c r="B4" s="11" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3452,40 +3448,40 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>257</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>106</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>144</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L4" s="3">
         <v>83</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N4" s="3">
         <v>13</v>
@@ -3497,7 +3493,7 @@
         <v>43830</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f20UPPachuca.xlsx
+++ b/xlsx/a69_f20UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\Vo. Bo. 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -741,25 +741,16 @@
     <t>Dirección de Planeación (UPP)</t>
   </si>
   <si>
-    <t>Servicios Escolares, de la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
     <t>Sin número</t>
   </si>
   <si>
     <t>Zempoala</t>
   </si>
   <si>
-    <t>54-77-510  Extensión: 2213</t>
-  </si>
-  <si>
     <t>servescolares@upp.edu.mx</t>
   </si>
   <si>
     <t>Área de Becas</t>
-  </si>
-  <si>
-    <t>54-77-510  Extensión: 2273</t>
   </si>
   <si>
     <t>becas@upp.edu.mx</t>
@@ -797,10 +788,6 @@
   </si>
   <si>
     <t>Lunes a viernes de 9:00 a.m. a 17:00 horas</t>
-  </si>
-  <si>
-    <t>Los campos que se encuentran en blanco, no aplican para este trámite.
-Trámite vigente para el ejercicio 2021.</t>
   </si>
   <si>
     <t>Aspirante aceptado/a que desea ser inscrito oficialmente en la Universidad Politécnica de Pachuca</t>
@@ -848,9 +835,6 @@
     <t>Pachuca-Cd. Sahagún</t>
   </si>
   <si>
-    <t xml:space="preserve"> Santa. Bárbara</t>
-  </si>
-  <si>
     <t>Cuotas y Tarifas del Organismo Descentralizado de la Administración Pública Estatal denominado “Universidad Politécnica de Pachuca”, para el Ejercicio Fiscal del año 2021.</t>
   </si>
   <si>
@@ -889,7 +873,48 @@
     <t>https://ruts.hidalgo.gob.mx/ver/8907</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Formato F-VI_EI-01 Solicitud de Estadía 
+    <t>6 días hábiles</t>
+  </si>
+  <si>
+    <t>Permanente</t>
+  </si>
+  <si>
+    <t>Estadías</t>
+  </si>
+  <si>
+    <t>estadias@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Reglamento de Estadía Profesional para Ingenierías y la Licenciatura en Terapia Física.</t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/vinculacion/estadias.php</t>
+  </si>
+  <si>
+    <t>https://ruts.hidalgo.gob.mx/8907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1,485.00</t>
+  </si>
+  <si>
+    <t>Estadía Profesional UPP</t>
+  </si>
+  <si>
+    <t>Becas Institucionales UPP</t>
+  </si>
+  <si>
+    <t>Inscripción UPP</t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/becas/</t>
+  </si>
+  <si>
+    <t>Reglamento de Becas Institucionales para becas internas,  Reglas de Operación del Programa Nacional de Becas para el ejercicio fiscal vigente, para la gestión de Becas externas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Formato F-VI_EI-01 Solicitud de Estadía 
 2. Carta de interés de la empresa receptora 
 3.Carta de Aceptación de la empresa receptora
 4. Constancia de no adeudo de materias
@@ -901,54 +926,29 @@
 10. Carta de Terminación de la Empresa o Institución
 11. Formato F-VI_EI-02 Reportes mensuales (3, 4, 5 o 6 según corresponda)
 12. Formato F-VI_EI-03 Evaluación Final de Asesor Técnico
-13. Pago de Reinscripción.
-</t>
-  </si>
-  <si>
-    <t>6 días hábiles</t>
-  </si>
-  <si>
-    <t>Permanente</t>
-  </si>
-  <si>
-    <t>Estadías</t>
-  </si>
-  <si>
-    <t>estadias@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Horario de Lunes a Viernes de  8:00-16:00 horas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 771 54 77 510 ext. 2264</t>
-  </si>
-  <si>
-    <t>Reglamento de Estadía Profesional para Ingenierías y la Licenciatura en Terapia Física.</t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/vinculacion/estadias.php</t>
-  </si>
-  <si>
-    <t>https://ruts.hidalgo.gob.mx/8907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1,485.00</t>
-  </si>
-  <si>
-    <t>Estadía Profesional UPP</t>
-  </si>
-  <si>
-    <t>Becas Institucionales UPP</t>
-  </si>
-  <si>
-    <t>Inscripción UPP</t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/becas/</t>
-  </si>
-  <si>
-    <t>Reglamento de Becas Institucionales para becas internas,  Reglas de Operación del Programa Nacional de Becas para el ejercicio fiscal vigente, para la gestión de Becas externas.</t>
+13. Pago de Reinscripción.</t>
+  </si>
+  <si>
+    <t>Los campos que se encuentran en blanco, no aplican para este trámite.
+Trámite vigente para el ejercicio 2022.</t>
+  </si>
+  <si>
+    <t>771 54-77-510  Extensión: 2213</t>
+  </si>
+  <si>
+    <t>771 54-77-510  Extensión: 2273</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 771 54 77 510 Extensión: 2264</t>
+  </si>
+  <si>
+    <t>Servicios Escolares</t>
+  </si>
+  <si>
+    <t>Santa. Bárbara</t>
+  </si>
+  <si>
+    <t>Lunes a Viernes de  8:00 a.m a 16:00 horas</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1089,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1148,11 +1148,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1491,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,39 +1526,39 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="30" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="30" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="33" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1726,34 +1721,34 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
     </row>
     <row r="7" spans="1:26" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
@@ -1840,79 +1835,79 @@
         <v>2021</v>
       </c>
       <c r="B8" s="4">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C8" s="4">
-        <v>44469</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="E8" s="25" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K8" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="F8" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>256</v>
-      </c>
       <c r="L8" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M8" s="3">
         <v>1</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="P8" s="3">
         <v>1</v>
       </c>
-      <c r="Q8" s="28" t="s">
-        <v>248</v>
+      <c r="Q8" s="25" t="s">
+        <v>245</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="S8" s="3">
         <v>1</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="U8" s="17" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>231</v>
       </c>
       <c r="X8" s="4">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="Y8" s="4">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
@@ -1920,37 +1915,37 @@
         <v>2021</v>
       </c>
       <c r="B9" s="4">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C9" s="4">
-        <v>44469</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="E9" s="29" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>264</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>269</v>
       </c>
       <c r="M9" s="3">
         <v>2</v>
@@ -1959,40 +1954,40 @@
         <v>0</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P9" s="10">
         <v>0</v>
       </c>
-      <c r="Q9" s="28" t="s">
-        <v>289</v>
+      <c r="Q9" s="25" t="s">
+        <v>281</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="S9" s="3">
         <v>1</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="U9" s="17" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>231</v>
       </c>
       <c r="X9" s="4">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="Y9" s="4">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="239.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2000,37 +1995,37 @@
         <v>2021</v>
       </c>
       <c r="B10" s="4">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C10" s="4">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M10" s="20">
         <v>3</v>
@@ -2039,40 +2034,40 @@
         <v>0</v>
       </c>
       <c r="O10" s="20" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P10" s="20">
         <v>0</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="S10" s="3">
         <v>1</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="U10" s="18" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="V10" s="17" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>231</v>
       </c>
       <c r="X10" s="4">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="Y10" s="4">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2283,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="M3" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2292,7 +2287,7 @@
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
@@ -2307,7 +2302,7 @@
     <col min="16" max="16" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
@@ -2481,42 +2476,42 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>232</v>
+        <v>287</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>106</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>144</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="I4" s="11">
         <v>1</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K4" s="11">
         <v>83</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M4" s="11">
         <v>13</v>
@@ -2528,54 +2523,54 @@
         <v>43830</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="43.5" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>106</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>144</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="I5" s="11">
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K5" s="11">
         <v>83</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M5" s="11">
         <v>13</v>
@@ -2587,56 +2582,56 @@
         <v>43830</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>238</v>
+        <v>285</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+    <row r="6" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>3</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>277</v>
+      <c r="B6" s="11" t="s">
+        <v>271</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>106</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>144</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="I6" s="11">
         <v>1</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K6" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M6" s="11">
         <v>13</v>
@@ -2648,16 +2643,16 @@
         <v>43830</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q6" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="R6" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="S6" s="23" t="s">
-        <v>279</v>
+        <v>238</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -3253,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3448,40 +3443,40 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>106</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>144</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L4" s="3">
         <v>83</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N4" s="3">
         <v>13</v>
@@ -3493,7 +3488,7 @@
         <v>43830</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f20UPPachuca.xlsx
+++ b/xlsx/a69_f20UPPachuca.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP 2DO TRI 2022\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="750" yWindow="615" windowWidth="13815" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="307">
   <si>
     <t>44251</t>
   </si>
@@ -978,15 +983,6 @@
     <t>Institución Bancaria BANORTE</t>
   </si>
   <si>
-    <t>5477510 ext. 2264</t>
-  </si>
-  <si>
-    <t>crystycortes@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Santa Barbara</t>
-  </si>
-  <si>
     <t>Reglamento del Nivel Licenciatura de la Universidad Politécnica de Pachuca. Título Segundo, Del Ingreso, Capítulo ll De la ingreso las y los estudiantes, Artículo 16</t>
   </si>
   <si>
@@ -1003,9 +999,6 @@
   </si>
   <si>
     <t>Dirección de Planeación (UPP)</t>
-  </si>
-  <si>
-    <t>Las tablas adyecentes y criterios que se observan vacios es por que esta institución no las genera.</t>
   </si>
   <si>
     <t xml:space="preserve">$1,595.00  16.57   UMA's
@@ -1014,7 +1007,8 @@
 $6,835.00  71.01 UMA's </t>
   </si>
   <si>
-    <t>No existe</t>
+    <t>Los campos que se encuentran en blanco, es por que no se requieren para solicitar el trámite.
+Trámite vigente para el ejercicio 2022.</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1146,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1211,9 +1205,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1222,9 +1213,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1246,7 +1234,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1258,6 +1248,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1306,7 +1299,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1341,7 +1334,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1552,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U6" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,38 +1588,38 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="28" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="28" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="31" t="s">
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1807,37 +1800,37 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
     </row>
     <row r="7" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1933,10 +1926,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="7">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="7">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>274</v>
@@ -1959,7 +1952,7 @@
       <c r="J8" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="21">
         <v>44649</v>
       </c>
       <c r="L8" s="16" t="s">
@@ -1973,8 +1966,8 @@
       <c r="P8" s="4">
         <v>1</v>
       </c>
-      <c r="Q8" s="27" t="s">
-        <v>309</v>
+      <c r="Q8" s="25" t="s">
+        <v>305</v>
       </c>
       <c r="R8" s="19" t="s">
         <v>297</v>
@@ -1982,31 +1975,29 @@
       <c r="S8" s="4">
         <v>1</v>
       </c>
-      <c r="T8" s="21" t="s">
+      <c r="T8" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="U8" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>305</v>
       </c>
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
-      <c r="X8" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="23" t="s">
+      <c r="X8" s="11"/>
+      <c r="Y8" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA8" s="21">
+        <v>44753</v>
+      </c>
+      <c r="AB8" s="21">
+        <v>44753</v>
+      </c>
+      <c r="AC8" s="31" t="s">
         <v>306</v>
-      </c>
-      <c r="Z8" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="AA8" s="22">
-        <v>44659</v>
-      </c>
-      <c r="AB8" s="22">
-        <v>44659</v>
-      </c>
-      <c r="AC8" s="24" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="86.25" x14ac:dyDescent="0.25">
@@ -2014,10 +2005,10 @@
         <v>2022</v>
       </c>
       <c r="B9" s="7">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C9" s="7">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>276</v>
@@ -2040,7 +2031,7 @@
       <c r="J9" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="21">
         <v>44649</v>
       </c>
       <c r="L9" s="17" t="s">
@@ -2054,7 +2045,7 @@
       <c r="P9" s="4">
         <v>2</v>
       </c>
-      <c r="Q9" s="25">
+      <c r="Q9" s="23">
         <v>0</v>
       </c>
       <c r="R9" s="18" t="s">
@@ -2063,31 +2054,29 @@
       <c r="S9" s="18">
         <v>0</v>
       </c>
-      <c r="T9" s="21" t="s">
-        <v>303</v>
+      <c r="T9" s="20" t="s">
+        <v>300</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
-      <c r="X9" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="23" t="s">
+      <c r="X9" s="11"/>
+      <c r="Y9" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA9" s="21">
+        <v>44753</v>
+      </c>
+      <c r="AB9" s="21">
+        <v>44753</v>
+      </c>
+      <c r="AC9" s="31" t="s">
         <v>306</v>
-      </c>
-      <c r="Z9" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="AA9" s="22">
-        <v>44659</v>
-      </c>
-      <c r="AB9" s="22">
-        <v>44659</v>
-      </c>
-      <c r="AC9" s="24" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="225" x14ac:dyDescent="0.25">
@@ -2095,10 +2084,10 @@
         <v>2022</v>
       </c>
       <c r="B10" s="7">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C10" s="7">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>278</v>
@@ -2121,7 +2110,7 @@
       <c r="J10" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="21">
         <v>44649</v>
       </c>
       <c r="L10" s="11" t="s">
@@ -2135,7 +2124,7 @@
       <c r="P10" s="11">
         <v>3</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="Q10" s="24">
         <v>0</v>
       </c>
       <c r="R10" s="11" t="s">
@@ -2145,30 +2134,28 @@
         <v>0</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
-      <c r="X10" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="23" t="s">
+      <c r="X10" s="11"/>
+      <c r="Y10" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z10" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA10" s="21">
+        <v>44753</v>
+      </c>
+      <c r="AB10" s="21">
+        <v>44753</v>
+      </c>
+      <c r="AC10" s="31" t="s">
         <v>306</v>
-      </c>
-      <c r="Z10" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="AA10" s="22">
-        <v>44659</v>
-      </c>
-      <c r="AB10" s="22">
-        <v>44659</v>
-      </c>
-      <c r="AC10" s="24" t="s">
-        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -2371,10 +2358,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView topLeftCell="N3" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2551,83 +2538,18 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="L4" s="4">
-        <v>83</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="N4" s="4">
-        <v>13</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="P4" s="4">
-        <v>43830</v>
-      </c>
-      <c r="Q4" s="33" t="s">
-        <v>310</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D5:D201">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D169">
       <formula1>Hidden_1_Tabla_3507253</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H5:H201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H169">
       <formula1>Hidden_2_Tabla_3507257</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O5:O201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4:O169">
       <formula1>Hidden_3_Tabla_35072514</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4">
-      <formula1>Hidden_3_Tabla_35071013</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4">
-      <formula1>Hidden_2_Tabla_3507106</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4">
-      <formula1>Hidden_1_Tabla_3507013</formula1>
-    </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/xlsx/a69_f20UPPachuca.xlsx
+++ b/xlsx/a69_f20UPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP 2DO TRI 2022\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -1223,6 +1218,9 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1233,9 +1231,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1299,7 +1294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1334,7 +1329,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1545,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,38 +1583,38 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="26" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="26" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="29" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1800,37 +1795,37 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
     </row>
     <row r="7" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1926,10 +1921,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="7">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C8" s="7">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>274</v>
@@ -1991,12 +1986,12 @@
         <v>304</v>
       </c>
       <c r="AA8" s="21">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AB8" s="21">
-        <v>44753</v>
-      </c>
-      <c r="AC8" s="31" t="s">
+        <v>44844</v>
+      </c>
+      <c r="AC8" s="26" t="s">
         <v>306</v>
       </c>
     </row>
@@ -2005,10 +2000,10 @@
         <v>2022</v>
       </c>
       <c r="B9" s="7">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C9" s="7">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>276</v>
@@ -2070,12 +2065,12 @@
         <v>304</v>
       </c>
       <c r="AA9" s="21">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AB9" s="21">
-        <v>44753</v>
-      </c>
-      <c r="AC9" s="31" t="s">
+        <v>44844</v>
+      </c>
+      <c r="AC9" s="26" t="s">
         <v>306</v>
       </c>
     </row>
@@ -2084,10 +2079,10 @@
         <v>2022</v>
       </c>
       <c r="B10" s="7">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C10" s="7">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>278</v>
@@ -2149,12 +2144,12 @@
         <v>304</v>
       </c>
       <c r="AA10" s="21">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AB10" s="21">
-        <v>44753</v>
-      </c>
-      <c r="AC10" s="31" t="s">
+        <v>44844</v>
+      </c>
+      <c r="AC10" s="26" t="s">
         <v>306</v>
       </c>
     </row>

--- a/xlsx/a69_f20UPPachuca.xlsx
+++ b/xlsx/a69_f20UPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4to Trimestre 2022\Recepción de Información\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45C8DDFE-A2F7-427B-AFD8-A331FA0B906C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -1009,7 +1015,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -1236,7 +1242,7 @@
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1294,7 +1300,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1327,9 +1333,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1362,6 +1385,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1537,11 +1577,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,10 +1961,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="7">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C8" s="7">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>274</v>
@@ -1986,10 +2026,10 @@
         <v>304</v>
       </c>
       <c r="AA8" s="21">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AB8" s="21">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC8" s="26" t="s">
         <v>306</v>
@@ -2000,10 +2040,10 @@
         <v>2022</v>
       </c>
       <c r="B9" s="7">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C9" s="7">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>276</v>
@@ -2065,10 +2105,10 @@
         <v>304</v>
       </c>
       <c r="AA9" s="21">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AB9" s="21">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC9" s="26" t="s">
         <v>306</v>
@@ -2079,10 +2119,10 @@
         <v>2022</v>
       </c>
       <c r="B10" s="7">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C10" s="7">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>278</v>
@@ -2144,10 +2184,10 @@
         <v>304</v>
       </c>
       <c r="AA10" s="21">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AB10" s="21">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC10" s="26" t="s">
         <v>306</v>
@@ -2164,14 +2204,14 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H8" r:id="rId1"/>
-    <hyperlink ref="H9" r:id="rId2"/>
-    <hyperlink ref="H10" r:id="rId3"/>
-    <hyperlink ref="J9" r:id="rId4"/>
-    <hyperlink ref="J10" r:id="rId5"/>
-    <hyperlink ref="J8" r:id="rId6"/>
-    <hyperlink ref="Y8" r:id="rId7"/>
-    <hyperlink ref="Y9:Y10" r:id="rId8" display="https://ruts.hidalgo.gob.mx/"/>
+    <hyperlink ref="H8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H10" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="Y8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Y9:Y10" r:id="rId8" display="https://ruts.hidalgo.gob.mx/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
@@ -2179,7 +2219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2352,7 +2392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -2535,13 +2575,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D169">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D169" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>Hidden_1_Tabla_3507253</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H169">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H169" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>Hidden_2_Tabla_3507257</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4:O169">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4:O169" xr:uid="{00000000-0002-0000-0A00-000002000000}">
       <formula1>Hidden_3_Tabla_35072514</formula1>
     </dataValidation>
   </dataValidations>
@@ -2550,7 +2590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2693,7 +2733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2911,7 +2951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3084,7 +3124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -3464,36 +3504,36 @@
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C7:C201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C7:C201" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Hidden_1_Tabla_3507242</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G7:G201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G7:G201" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>Hidden_2_Tabla_3507246</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N7:N201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N7:N201" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>Hidden_3_Tabla_35072413</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C4:C6">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C4:C6" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>Hidden_1_Tabla_3507102</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G6">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G6" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>Hidden_2_Tabla_3507106</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N6">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N6" xr:uid="{00000000-0002-0000-0100-000005000000}">
       <formula1>Hidden_3_Tabla_35071013</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="R4" r:id="rId1"/>
-    <hyperlink ref="R5" r:id="rId2"/>
-    <hyperlink ref="R6" r:id="rId3"/>
+    <hyperlink ref="R4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="R5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="R6" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3636,7 +3676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3856,7 +3896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4029,7 +4069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -4074,7 +4114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -4246,13 +4286,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D143">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D143" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>Hidden_1_Tabla_5661003</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H143">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H143" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>Hidden_2_Tabla_5661007</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4:O143">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4:O143" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>Hidden_3_Tabla_56610014</formula1>
     </dataValidation>
   </dataValidations>
@@ -4261,7 +4301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4404,7 +4444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/xlsx/a69_f20UPPachuca.xlsx
+++ b/xlsx/a69_f20UPPachuca.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4to Trimestre 2022\Recepción de Información\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45C8DDFE-A2F7-427B-AFD8-A331FA0B906C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -978,9 +972,6 @@
     <t>No tiene</t>
   </si>
   <si>
-    <t>Cuotas y Tarifas del Organismo Descentralizado de la Administración Pública Estatal denominado “Universidad Politécnica de Pachuca”, para el Ejercicio Fiscal del año 2022.</t>
-  </si>
-  <si>
     <t>Institución Bancaria BANORTE</t>
   </si>
   <si>
@@ -999,23 +990,26 @@
     <t>https://ruts.hidalgo.gob.mx/</t>
   </si>
   <si>
-    <t>Dirección de Planeación (UPP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1,595.00  16.57   UMA's
-$3,988.00   41.43 UMA's
-$3,190.00 33.14 UMA's
-$6,835.00  71.01 UMA's </t>
-  </si>
-  <si>
-    <t>Los campos que se encuentran en blanco, es por que no se requieren para solicitar el trámite.
-Trámite vigente para el ejercicio 2022.</t>
+    <t>Cuotas y Tarifas del Organismo Descentralizado de la Administración Pública Estatal denominado “Universidad Politécnica de Pachuca”, para el Ejercicio Fiscal del año 2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1,719.00  16.57   UMA's
+$4,298.00   41.43 UMA's
+$3,438.00 33.14 UMA's
+$7,366.00  71.01 UMA's </t>
+  </si>
+  <si>
+    <t>Unidad de Transparencia Gubernamental (UPP)</t>
+  </si>
+  <si>
+    <t>Los campos e hipervinculos que se observan vacios es por que no se requieren para solicitar el servicio
+Servicio Vigente para el ejercicio 2023.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -1147,7 +1141,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1224,9 +1218,6 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1238,11 +1229,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1300,7 +1300,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1333,26 +1333,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1385,23 +1368,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1577,11 +1543,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1623,38 +1589,38 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="27" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="27" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="30" t="s">
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1835,37 +1801,37 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
     </row>
     <row r="7" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1957,14 +1923,14 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="328.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B8" s="7">
-        <v>44835</v>
-      </c>
-      <c r="C8" s="7">
-        <v>44926</v>
+      <c r="A8" s="31">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="32">
+        <v>44927</v>
+      </c>
+      <c r="C8" s="32">
+        <v>45016</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>274</v>
@@ -1988,7 +1954,7 @@
         <v>284</v>
       </c>
       <c r="K8" s="21">
-        <v>44649</v>
+        <v>45014</v>
       </c>
       <c r="L8" s="16" t="s">
         <v>290</v>
@@ -2002,48 +1968,48 @@
         <v>1</v>
       </c>
       <c r="Q8" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="R8" s="19" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="S8" s="4">
         <v>1</v>
       </c>
       <c r="T8" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
       <c r="Y8" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z8" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA8" s="21">
-        <v>44936</v>
-      </c>
-      <c r="AB8" s="21">
-        <v>44936</v>
-      </c>
-      <c r="AC8" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z8" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA8" s="32">
+        <v>45026</v>
+      </c>
+      <c r="AB8" s="32">
+        <v>45026</v>
+      </c>
+      <c r="AC8" s="33" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B9" s="7">
-        <v>44835</v>
-      </c>
-      <c r="C9" s="7">
-        <v>44926</v>
+      <c r="A9" s="31">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="32">
+        <v>44927</v>
+      </c>
+      <c r="C9" s="32">
+        <v>45016</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>276</v>
@@ -2067,7 +2033,7 @@
         <v>285</v>
       </c>
       <c r="K9" s="21">
-        <v>44649</v>
+        <v>45014</v>
       </c>
       <c r="L9" s="17" t="s">
         <v>291</v>
@@ -2090,27 +2056,27 @@
         <v>0</v>
       </c>
       <c r="T9" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z9" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA9" s="21">
-        <v>44936</v>
-      </c>
-      <c r="AB9" s="21">
-        <v>44936</v>
-      </c>
-      <c r="AC9" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z9" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA9" s="32">
+        <v>45026</v>
+      </c>
+      <c r="AB9" s="32">
+        <v>45026</v>
+      </c>
+      <c r="AC9" s="33" t="s">
         <v>306</v>
       </c>
     </row>
@@ -2146,7 +2112,7 @@
         <v>286</v>
       </c>
       <c r="K10" s="21">
-        <v>44649</v>
+        <v>45014</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>292</v>
@@ -2169,27 +2135,27 @@
         <v>0</v>
       </c>
       <c r="T10" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="U10" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z10" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA10" s="21">
-        <v>44936</v>
-      </c>
-      <c r="AB10" s="21">
-        <v>44936</v>
-      </c>
-      <c r="AC10" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z10" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA10" s="32">
+        <v>45026</v>
+      </c>
+      <c r="AB10" s="32">
+        <v>45026</v>
+      </c>
+      <c r="AC10" s="33" t="s">
         <v>306</v>
       </c>
     </row>
@@ -2204,14 +2170,14 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H10" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="Y8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Y9:Y10" r:id="rId8" display="https://ruts.hidalgo.gob.mx/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H8" r:id="rId1"/>
+    <hyperlink ref="H9" r:id="rId2"/>
+    <hyperlink ref="H10" r:id="rId3"/>
+    <hyperlink ref="J9" r:id="rId4"/>
+    <hyperlink ref="J10" r:id="rId5"/>
+    <hyperlink ref="J8" r:id="rId6"/>
+    <hyperlink ref="Y8" r:id="rId7"/>
+    <hyperlink ref="Y9:Y10" r:id="rId8" display="https://ruts.hidalgo.gob.mx/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
@@ -2219,7 +2185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2392,10 +2358,10 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="N3" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2575,13 +2541,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D169" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D169">
       <formula1>Hidden_1_Tabla_3507253</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H169" xr:uid="{00000000-0002-0000-0A00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H169">
       <formula1>Hidden_2_Tabla_3507257</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4:O169" xr:uid="{00000000-0002-0000-0A00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4:O169">
       <formula1>Hidden_3_Tabla_35072514</formula1>
     </dataValidation>
   </dataValidations>
@@ -2590,7 +2556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2733,7 +2699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2951,7 +2917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3124,11 +3090,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="Q3" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3504,36 +3470,36 @@
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C7:C201" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C7:C201">
       <formula1>Hidden_1_Tabla_3507242</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G7:G201" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G7:G201">
       <formula1>Hidden_2_Tabla_3507246</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N7:N201" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N7:N201">
       <formula1>Hidden_3_Tabla_35072413</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C4:C6" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C4:C6">
       <formula1>Hidden_1_Tabla_3507102</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G6" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G6">
       <formula1>Hidden_2_Tabla_3507106</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N6" xr:uid="{00000000-0002-0000-0100-000005000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N6">
       <formula1>Hidden_3_Tabla_35071013</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="R4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="R5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="R6" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="R4" r:id="rId1"/>
+    <hyperlink ref="R5" r:id="rId2"/>
+    <hyperlink ref="R6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3676,7 +3642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3896,7 +3862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4069,7 +4035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -4105,7 +4071,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -4114,11 +4080,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C21" sqref="C20:C21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4286,13 +4252,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D143" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D143">
       <formula1>Hidden_1_Tabla_5661003</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H143" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H143">
       <formula1>Hidden_2_Tabla_5661007</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4:O143" xr:uid="{00000000-0002-0000-0600-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4:O143">
       <formula1>Hidden_3_Tabla_56610014</formula1>
     </dataValidation>
   </dataValidations>
@@ -4301,7 +4267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4444,7 +4410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/xlsx/a69_f20UPPachuca.xlsx
+++ b/xlsx/a69_f20UPPachuca.xlsx
@@ -1141,7 +1141,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1160,9 +1160,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1218,6 +1215,15 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1228,15 +1234,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1547,7 +1544,7 @@
   <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,38 +1586,38 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="26" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="26" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="29" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
     </row>
     <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1801,37 +1798,37 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
     </row>
     <row r="7" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1923,22 +1920,22 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="328.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
+      <c r="A8" s="25">
         <v>2023</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="26">
         <v>44927</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="26">
         <v>45016</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>275</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -1947,215 +1944,215 @@
       <c r="H8" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="14" t="s">
         <v>287</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="20">
         <v>45014</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="17" t="s">
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="16" t="s">
         <v>293</v>
       </c>
       <c r="P8" s="4">
         <v>1</v>
       </c>
-      <c r="Q8" s="25" t="s">
+      <c r="Q8" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="R8" s="19" t="s">
+      <c r="R8" s="18" t="s">
         <v>303</v>
       </c>
       <c r="S8" s="4">
         <v>1</v>
       </c>
-      <c r="T8" s="20" t="s">
+      <c r="T8" s="19" t="s">
         <v>298</v>
       </c>
       <c r="U8" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="22" t="s">
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="Z8" s="31" t="s">
+      <c r="Z8" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="AA8" s="32">
+      <c r="AA8" s="26">
         <v>45026</v>
       </c>
-      <c r="AB8" s="32">
+      <c r="AB8" s="26">
         <v>45026</v>
       </c>
-      <c r="AC8" s="33" t="s">
+      <c r="AC8" s="27" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
+      <c r="A9" s="25">
         <v>2023</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="26">
         <v>44927</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="26">
         <v>45016</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>277</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="20">
         <v>45014</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="17" t="s">
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="16" t="s">
         <v>294</v>
       </c>
       <c r="P9" s="4">
         <v>2</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="22">
         <v>0</v>
       </c>
-      <c r="R9" s="18" t="s">
+      <c r="R9" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="S9" s="18">
+      <c r="S9" s="17">
         <v>0</v>
       </c>
-      <c r="T9" s="20" t="s">
+      <c r="T9" s="19" t="s">
         <v>299</v>
       </c>
       <c r="U9" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="22" t="s">
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="Z9" s="31" t="s">
+      <c r="Z9" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="AA9" s="32">
+      <c r="AA9" s="26">
         <v>45026</v>
       </c>
-      <c r="AB9" s="32">
+      <c r="AB9" s="26">
         <v>45026</v>
       </c>
-      <c r="AC9" s="33" t="s">
+      <c r="AC9" s="27" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="225" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="7">
-        <v>44835</v>
-      </c>
-      <c r="C10" s="7">
-        <v>44926</v>
-      </c>
-      <c r="D10" s="11" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="26">
+        <v>44927</v>
+      </c>
+      <c r="C10" s="26">
+        <v>45016</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="20">
         <v>45014</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11" t="s">
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="10">
         <v>3</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10" s="23">
         <v>0</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="R10" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="S10" s="11">
+      <c r="S10" s="10">
         <v>0</v>
       </c>
-      <c r="T10" s="12" t="s">
+      <c r="T10" s="11" t="s">
         <v>300</v>
       </c>
       <c r="U10" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="22" t="s">
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="Z10" s="31" t="s">
+      <c r="Z10" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="AA10" s="32">
+      <c r="AA10" s="26">
         <v>45026</v>
       </c>
-      <c r="AB10" s="32">
+      <c r="AB10" s="26">
         <v>45026</v>
       </c>
-      <c r="AC10" s="33" t="s">
+      <c r="AC10" s="27" t="s">
         <v>306</v>
       </c>
     </row>

--- a/xlsx/a69_f20UPPachuca.xlsx
+++ b/xlsx/a69_f20UPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\2023\SIPOT\Vo. Bo. Uno 2do Tri 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33A1F140-F029-4D51-8A26-E9EE4D496B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -23,16 +29,12 @@
     <sheet name="Hidden_3_Tabla_350725" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="Hidden_1_Tabla_3507013">#REF!</definedName>
-    <definedName name="Hidden_1_Tabla_3507102">#REF!</definedName>
     <definedName name="Hidden_1_Tabla_3507242">Hidden_1_Tabla_350724!$A$1:$A$26</definedName>
     <definedName name="Hidden_1_Tabla_3507253">Hidden_1_Tabla_350725!$A$1:$A$26</definedName>
     <definedName name="Hidden_1_Tabla_5661003">Hidden_1_Tabla_566100!$A$1:$A$26</definedName>
-    <definedName name="Hidden_2_Tabla_3507106">#REF!</definedName>
     <definedName name="Hidden_2_Tabla_3507246">Hidden_2_Tabla_350724!$A$1:$A$41</definedName>
     <definedName name="Hidden_2_Tabla_3507257">Hidden_2_Tabla_350725!$A$1:$A$41</definedName>
     <definedName name="Hidden_2_Tabla_5661007">Hidden_2_Tabla_566100!$A$1:$A$41</definedName>
-    <definedName name="Hidden_3_Tabla_35071013">#REF!</definedName>
     <definedName name="Hidden_3_Tabla_35072413">Hidden_3_Tabla_350724!$A$1:$A$32</definedName>
     <definedName name="Hidden_3_Tabla_35072514">Hidden_3_Tabla_350725!$A$1:$A$32</definedName>
     <definedName name="Hidden_3_Tabla_56610014">Hidden_3_Tabla_566100!$A$1:$A$32</definedName>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="314">
   <si>
     <t>44251</t>
   </si>
@@ -188,34 +190,34 @@
     <t>Nombre del trámite</t>
   </si>
   <si>
-    <t>Descripción de trámite</t>
-  </si>
-  <si>
-    <t>Tipo de usuario y/o población objetivo</t>
+    <t>Descripción de trámite (Redactados con perspectiva de género)</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Tipo de población usuaria y/o población objetivo (Redactados con perspectiva de género)</t>
   </si>
   <si>
     <t>Modalidad del trámite</t>
   </si>
   <si>
-    <t>Hipervínculo a los requisitos para llevar a cabo el trámite</t>
-  </si>
-  <si>
-    <t>Documentos requeridos, en su caso</t>
+    <t>Hipervínculo a los requisitos para llevar a cabo el trámite (Redactados con perspectiva de género)</t>
+  </si>
+  <si>
+    <t>Documentos requeridos, en su caso (Redactados con perspectiva de género)</t>
   </si>
   <si>
     <t>Hipervínculo al/los formatos respectivos</t>
   </si>
   <si>
-    <t>Última fecha de publicación en el medio de difusión</t>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Última fecha de publicación en el medio de difusión</t>
   </si>
   <si>
     <t>Tiempo de respuesta por parte del sujeto Obligado</t>
   </si>
   <si>
-    <t>Plazo con el que cuenta el sujeto obligado para prevenir al solicitante</t>
-  </si>
-  <si>
-    <t>Plazo con el que cuenta el solicitante para cumplir con la prevención</t>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Plazo con el que cuenta el sujeto obligado para prevenir al solicitante</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Plazo con el que cuenta el solicitante para cumplir con la prevención</t>
   </si>
   <si>
     <t>Vigencia de los resultados del trámite</t>
@@ -225,7 +227,7 @@
 Tabla_350724</t>
   </si>
   <si>
-    <t>Monto de los derechos o aprovechamientos aplicables, en su caso</t>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Monto de los derechos o aprovechamientos aplicables, en su caso</t>
   </si>
   <si>
     <t>Sustento legal para su cobro</t>
@@ -238,10 +240,10 @@
     <t>Fundamento jurídico-administrativo de la existencia del trámite</t>
   </si>
   <si>
-    <t>Derechos del usuario</t>
-  </si>
-  <si>
-    <t>Información adicional del trámite, en su caso</t>
+    <t>Derechos de la persona usuaria ante la negativa o la falta de respuesta (especificar si aplica la afirmativa o negativa ficta) (Redactados con perspectiva de género)</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Información adicional del trámite, en su caso (Redactada con perspectiva de género)</t>
   </si>
   <si>
     <t>Medio que permita el envío de consultas y documentos 
@@ -375,7 +377,7 @@
     <t>Teléfono y extensión en su caso</t>
   </si>
   <si>
-    <t>Medios electrónicos de comunicación</t>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Medios electrónicos de comunicación</t>
   </si>
   <si>
     <t>Horario de atención(días y horas)</t>
@@ -720,193 +722,133 @@
     <t>75688</t>
   </si>
   <si>
-    <t>Teléfono y, en su caso, extensión</t>
-  </si>
-  <si>
-    <t>Domicilio: Tipo de vialidad (catálogo)</t>
-  </si>
-  <si>
-    <t>Nombre de vialidad</t>
-  </si>
-  <si>
-    <t>Número interior, en su caso</t>
-  </si>
-  <si>
-    <t>Tipo de asentamiento (catálogo)</t>
-  </si>
-  <si>
-    <t>Nombre del municipio o delegación</t>
-  </si>
-  <si>
-    <t>Nombre de la entidad federativa (catálogo)</t>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Teléfono y, en su caso, extensión</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Domicilio: Tipo de vialidad (catálogo)</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Nombre de vialidad</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Número exterior</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Número interior, en su caso</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Tipo de asentamiento (catálogo)</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Nombre del asentamiento</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Clave de la localidad</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Nombre de la localidad</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Clave del municipio</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Nombre del municipio o delegación</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Clave de la entidad federativa</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Nombre de la entidad federativa (catálogo)</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Código postal</t>
+  </si>
+  <si>
+    <t>45398</t>
+  </si>
+  <si>
+    <t>75677</t>
+  </si>
+  <si>
+    <t>45400</t>
+  </si>
+  <si>
+    <t>45401</t>
+  </si>
+  <si>
+    <t>45402</t>
+  </si>
+  <si>
+    <t>45403</t>
+  </si>
+  <si>
+    <t>45404</t>
+  </si>
+  <si>
+    <t>45405</t>
+  </si>
+  <si>
+    <t>45406</t>
+  </si>
+  <si>
+    <t>45407</t>
+  </si>
+  <si>
+    <t>45408</t>
+  </si>
+  <si>
+    <t>45409</t>
+  </si>
+  <si>
+    <t>45410</t>
+  </si>
+  <si>
+    <t>45411</t>
+  </si>
+  <si>
+    <t>45412</t>
+  </si>
+  <si>
+    <t>45413</t>
+  </si>
+  <si>
+    <t>Teléfono, en su caso extensión</t>
+  </si>
+  <si>
+    <t>Tipo de vialidad (catálogo)</t>
+  </si>
+  <si>
+    <t>Nombre de la vialidad</t>
+  </si>
+  <si>
+    <t>Número interior, en su caso.</t>
+  </si>
+  <si>
+    <t>Tipo de asentamiento humano</t>
+  </si>
+  <si>
+    <t>Nombre de asentamiento humano</t>
+  </si>
+  <si>
+    <t>Clave del municipio/delegación</t>
+  </si>
+  <si>
+    <t>Nombre del municipio/delegación</t>
+  </si>
+  <si>
+    <t>Entidad federativa</t>
   </si>
   <si>
     <t>Código postal</t>
   </si>
   <si>
-    <t>45398</t>
-  </si>
-  <si>
-    <t>75677</t>
-  </si>
-  <si>
-    <t>45400</t>
-  </si>
-  <si>
-    <t>45401</t>
-  </si>
-  <si>
-    <t>45402</t>
-  </si>
-  <si>
-    <t>45403</t>
-  </si>
-  <si>
-    <t>45404</t>
-  </si>
-  <si>
-    <t>45405</t>
-  </si>
-  <si>
-    <t>45406</t>
-  </si>
-  <si>
-    <t>45407</t>
-  </si>
-  <si>
-    <t>45408</t>
-  </si>
-  <si>
-    <t>45409</t>
-  </si>
-  <si>
-    <t>45410</t>
-  </si>
-  <si>
-    <t>45411</t>
-  </si>
-  <si>
-    <t>45412</t>
-  </si>
-  <si>
-    <t>45413</t>
-  </si>
-  <si>
-    <t>Teléfono, en su caso extensión</t>
-  </si>
-  <si>
-    <t>Tipo de vialidad (catálogo)</t>
-  </si>
-  <si>
-    <t>Nombre de la vialidad</t>
-  </si>
-  <si>
-    <t>Número interior, en su caso.</t>
-  </si>
-  <si>
-    <t>Tipo de asentamiento humano</t>
-  </si>
-  <si>
-    <t>Nombre de asentamiento humano</t>
-  </si>
-  <si>
-    <t>Clave del municipio/delegación</t>
-  </si>
-  <si>
-    <t>Nombre del municipio/delegación</t>
-  </si>
-  <si>
-    <t>Entidad federativa</t>
-  </si>
-  <si>
-    <t>Servicios Escolares</t>
-  </si>
-  <si>
-    <t>Pachuca-Cd. Sahagún</t>
-  </si>
-  <si>
-    <t>Sin número</t>
-  </si>
-  <si>
-    <t>Área de Becas</t>
-  </si>
-  <si>
-    <t>Estadías</t>
-  </si>
-  <si>
-    <t>Santa. Bárbara</t>
-  </si>
-  <si>
-    <t>Zempoala</t>
-  </si>
-  <si>
-    <t>No hay domicilio en el extranjero</t>
-  </si>
-  <si>
-    <t>771 54-77-510  Extensión: 2213</t>
-  </si>
-  <si>
-    <t>servescolares@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Lunes a viernes de 8:00 a. m. a 16:00 horas</t>
-  </si>
-  <si>
-    <t>771 54-77-510  Extensión: 2273</t>
-  </si>
-  <si>
-    <t>becas@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Lunes a viernes de 9:00 a.m. a 17:00 horas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 771 54 77 510 Extensión: 2264</t>
-  </si>
-  <si>
-    <t>estadias@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Lunes a Viernes de  8:00 a.m a 16:00 horas</t>
-  </si>
-  <si>
     <t>Inscripción UPP</t>
   </si>
   <si>
-    <t>Aspirante aceptado/a que desea ser inscrito oficialmente en la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
-    <t>Becas Institucionales UPP</t>
-  </si>
-  <si>
-    <t>Estudiantes de la Universidad Politécnica de Pachuca.</t>
-  </si>
-  <si>
-    <t>Estadía Profesional UPP</t>
-  </si>
-  <si>
-    <t>Estudiantes de décimo cuatrimestre que ha integrado los créditos al 100%.</t>
-  </si>
-  <si>
-    <t>Informar los requisitos y el proceso que deberán seguir las y los aspirantes que son aceptados que desean inscribirse (cuatrimestral o semestral).</t>
-  </si>
-  <si>
-    <t>Informar a las y los estudiantes interesados en participar en el proceso de selección para la obtención de alguna de las becas que otorga la Universidad, así como de los requisitos para la obtención de la misma.</t>
-  </si>
-  <si>
-    <t>Última asignatura que desarrollarán estudiantes de décimo cuatrimestre en un ambiente laboral real, para aplicar los conocimientos teóricos.</t>
-  </si>
-  <si>
     <t>En linea</t>
   </si>
   <si>
     <t>https://ruts.hidalgo.gob.mx/ver/944</t>
-  </si>
-  <si>
-    <t>https://ruts.hidalgo.gob.mx/ver/8893</t>
-  </si>
-  <si>
-    <t>https://ruts.hidalgo.gob.mx/ver/8907</t>
   </si>
   <si>
     <t>Ingeniería/licenciatura y Terapia Física 
@@ -930,9 +872,64 @@
 11.- Comprobante de pago de inscripción.</t>
   </si>
   <si>
+    <t>30 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un cuatrimestre o semestre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1,719.00  16.57   UMA's
+$4,298.00   41.43 UMA's
+$3,438.00 33.14 UMA's
+$7,366.00  71.01 UMA's </t>
+  </si>
+  <si>
+    <t>Cuotas y Tarifas del Organismo Descentralizado de la Administración Pública Estatal denominado “Universidad Politécnica de Pachuca”, para el Ejercicio Fiscal del año 2023.</t>
+  </si>
+  <si>
+    <t>Reglamento del Nivel Licenciatura de la Universidad Politécnica de Pachuca. Título Segundo, Del Ingreso, Capítulo ll De la ingreso las y los estudiantes, Artículo 16</t>
+  </si>
+  <si>
+    <t>Afirmativa Ficta</t>
+  </si>
+  <si>
+    <t>https://ruts.hidalgo.gob.mx/</t>
+  </si>
+  <si>
+    <t>Unidad de Transparencia Gubernamental (UPP)</t>
+  </si>
+  <si>
+    <t>Los campos e hipervinculos que se observan vacios es por que no se requieren para solicitar el servicio
+Servicio Vigente para el ejercicio 2023.</t>
+  </si>
+  <si>
+    <t>Becas Institucionales UPP</t>
+  </si>
+  <si>
+    <t>https://ruts.hidalgo.gob.mx/ver/8893</t>
+  </si>
+  <si>
     <t>1.- Solicitud de beca
 2.- Constancia de no adeudo
 3.- Formato socio-económico</t>
+  </si>
+  <si>
+    <t>7 días</t>
+  </si>
+  <si>
+    <t>4 meses  o 6 meses según sea el caso</t>
+  </si>
+  <si>
+    <t>No tiene</t>
+  </si>
+  <si>
+    <t>Reglamento de Becas Institucionales para becas internas,  Reglas de Operación del Programa Nacional de Becas para el ejercicio fiscal vigente, para la gestión de Becas externas.</t>
+  </si>
+  <si>
+    <t>Estadía Profesional UPP</t>
+  </si>
+  <si>
+    <t>https://ruts.hidalgo.gob.mx/ver/8907</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -951,69 +948,95 @@
 13. Pago de Reinscripción.</t>
   </si>
   <si>
-    <t>30 minutos</t>
-  </si>
-  <si>
-    <t>7 días</t>
-  </si>
-  <si>
     <t>6 días hábiles</t>
   </si>
   <si>
-    <t xml:space="preserve">Un cuatrimestre o semestre </t>
-  </si>
-  <si>
-    <t>4 meses  o 6 meses según sea el caso</t>
-  </si>
-  <si>
     <t>Permanente</t>
   </si>
   <si>
-    <t>No tiene</t>
+    <t>Reglamento de Estadía Profesional para Ingenierías y la Licenciatura en Terapia Física.</t>
+  </si>
+  <si>
+    <t>Informar los requisitos y el proceso que deberán seguir a la población estudiantil que son aceptados que desean inscribirse (cuatrimestral o semestral).</t>
+  </si>
+  <si>
+    <t>Informar a la población estudiantil interesados en participar en el proceso de selección para la obtención de alguna de las becas que otorga la Universidad, así como de los requisitos para la obtención de la misma.</t>
+  </si>
+  <si>
+    <t>Última asignatura que desarrollarán la población estudiantil de décimo cuatrimestre en un ambiente laboral real, para aplicar los conocimientos teóricos.</t>
+  </si>
+  <si>
+    <t>Población Estudiantil que desea ser inscrito oficialmente en la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
+    <t>Población Estudiantil de la Universidad Politécnica de Pachuca.</t>
+  </si>
+  <si>
+    <t>Población Estudiantil de décimo cuatrimestre que ha integrado los créditos al 100%.</t>
   </si>
   <si>
     <t>Institución Bancaria BANORTE</t>
   </si>
   <si>
-    <t>Reglamento del Nivel Licenciatura de la Universidad Politécnica de Pachuca. Título Segundo, Del Ingreso, Capítulo ll De la ingreso las y los estudiantes, Artículo 16</t>
-  </si>
-  <si>
-    <t>Reglamento de Becas Institucionales para becas internas,  Reglas de Operación del Programa Nacional de Becas para el ejercicio fiscal vigente, para la gestión de Becas externas.</t>
-  </si>
-  <si>
-    <t>Reglamento de Estadía Profesional para Ingenierías y la Licenciatura en Terapia Física.</t>
-  </si>
-  <si>
-    <t>Afirmativa Ficta</t>
-  </si>
-  <si>
-    <t>https://ruts.hidalgo.gob.mx/</t>
-  </si>
-  <si>
-    <t>Cuotas y Tarifas del Organismo Descentralizado de la Administración Pública Estatal denominado “Universidad Politécnica de Pachuca”, para el Ejercicio Fiscal del año 2023.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1,719.00  16.57   UMA's
-$4,298.00   41.43 UMA's
-$3,438.00 33.14 UMA's
-$7,366.00  71.01 UMA's </t>
-  </si>
-  <si>
-    <t>Unidad de Transparencia Gubernamental (UPP)</t>
-  </si>
-  <si>
-    <t>Los campos e hipervinculos que se observan vacios es por que no se requieren para solicitar el servicio
-Servicio Vigente para el ejercicio 2023.</t>
+    <t>Servicios Escolares</t>
+  </si>
+  <si>
+    <t>Pachuca-Cd. Sahagún</t>
+  </si>
+  <si>
+    <t>Sin número</t>
+  </si>
+  <si>
+    <t>Santa. Bárbara</t>
+  </si>
+  <si>
+    <t>Zempoala</t>
+  </si>
+  <si>
+    <t>No hay domicilio en el extranjero</t>
+  </si>
+  <si>
+    <t>771 54-77-510  Extensión: 2213</t>
+  </si>
+  <si>
+    <t>servescolares@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Lunes a viernes de 8:00 a. m. a 16:00 horas</t>
+  </si>
+  <si>
+    <t>Área de Becas</t>
+  </si>
+  <si>
+    <t>771 54-77-510  Extensión: 2273</t>
+  </si>
+  <si>
+    <t>becas@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Lunes a viernes de 9:00 a.m. a 17:00 horas</t>
+  </si>
+  <si>
+    <t>Estadías</t>
+  </si>
+  <si>
+    <t> 771 54 77 510 Extensión: 2264</t>
+  </si>
+  <si>
+    <t>estadias@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Lunes a Viernes de  8:00 a.m a 16:00 horas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1043,7 +1066,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF212529"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1056,26 +1079,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF212529"/>
-      <name val="Arial"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1103,7 +1133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1126,22 +1156,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1149,97 +1170,62 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1297,7 +1283,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1330,9 +1316,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1365,6 +1368,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1540,44 +1560,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="54.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="119.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="160" customWidth="1"/>
-    <col min="10" max="10" width="84.140625" customWidth="1"/>
-    <col min="11" max="11" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="190.5703125" customWidth="1"/>
+    <col min="10" max="10" width="47.7109375" customWidth="1"/>
+    <col min="11" max="11" width="88.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="59.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="103.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="102.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="56.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="44.42578125" customWidth="1"/>
+    <col min="17" max="17" width="100.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.28515625" customWidth="1"/>
     <col min="19" max="19" width="46" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="54.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.28515625" customWidth="1"/>
-    <col min="22" max="22" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="138" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="116.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="46" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="78.7109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.7109375" customWidth="1"/>
+    <col min="27" max="27" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="20" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="51" customWidth="1"/>
+    <col min="29" max="29" width="56.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -1586,38 +1606,38 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="28" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="28" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-    </row>
-    <row r="3" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="31" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1798,40 +1818,40 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-    </row>
-    <row r="7" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+    </row>
+    <row r="7" spans="1:29" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1919,241 +1939,241 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="328.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+    <row r="8" spans="1:29" ht="314.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>2023</v>
       </c>
-      <c r="B8" s="26">
-        <v>44927</v>
-      </c>
-      <c r="C8" s="26">
-        <v>45016</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="B8" s="5">
+        <v>45017</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45107</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="K8" s="5">
+        <v>45014</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="P8" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="S8" s="6">
+        <v>1</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="Z8" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>45117</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>45117</v>
+      </c>
+      <c r="AC8" s="13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="5">
+        <v>45017</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45107</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="K9" s="5">
+        <v>45014</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="P9" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="S9" s="6">
+        <v>0</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z9" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="AA9" s="5">
+        <v>45117</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>45117</v>
+      </c>
+      <c r="AC9" s="13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="225" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="5">
+        <v>45017</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45107</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="E10" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="K10" s="5">
+        <v>45014</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="K8" s="20">
-        <v>45014</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="P8" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="R8" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="S8" s="4">
-        <v>1</v>
-      </c>
-      <c r="T8" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="Z8" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA8" s="26">
-        <v>45026</v>
-      </c>
-      <c r="AB8" s="26">
-        <v>45026</v>
-      </c>
-      <c r="AC8" s="27" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
-        <v>2023</v>
-      </c>
-      <c r="B9" s="26">
-        <v>44927</v>
-      </c>
-      <c r="C9" s="26">
-        <v>45016</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="P10" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>45117</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>45117</v>
+      </c>
+      <c r="AC10" s="13" t="s">
         <v>276</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="K9" s="20">
-        <v>45014</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="P9" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="22">
-        <v>0</v>
-      </c>
-      <c r="R9" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="S9" s="17">
-        <v>0</v>
-      </c>
-      <c r="T9" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="Z9" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA9" s="26">
-        <v>45026</v>
-      </c>
-      <c r="AB9" s="26">
-        <v>45026</v>
-      </c>
-      <c r="AC9" s="27" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="225" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>2023</v>
-      </c>
-      <c r="B10" s="26">
-        <v>44927</v>
-      </c>
-      <c r="C10" s="26">
-        <v>45016</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="K10" s="20">
-        <v>45014</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="P10" s="10">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="23">
-        <v>0</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="S10" s="10">
-        <v>0</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="Z10" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA10" s="26">
-        <v>45026</v>
-      </c>
-      <c r="AB10" s="26">
-        <v>45026</v>
-      </c>
-      <c r="AC10" s="27" t="s">
-        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -2167,22 +2187,21 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H8" r:id="rId1"/>
-    <hyperlink ref="H9" r:id="rId2"/>
-    <hyperlink ref="H10" r:id="rId3"/>
-    <hyperlink ref="J9" r:id="rId4"/>
-    <hyperlink ref="J10" r:id="rId5"/>
-    <hyperlink ref="J8" r:id="rId6"/>
-    <hyperlink ref="Y8" r:id="rId7"/>
-    <hyperlink ref="Y9:Y10" r:id="rId8" display="https://ruts.hidalgo.gob.mx/"/>
+    <hyperlink ref="H8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H10" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="Y8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Y9:Y10" r:id="rId8" display="https://ruts.hidalgo.gob.mx/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2355,18 +2374,18 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView topLeftCell="N3" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -2435,52 +2454,52 @@
     </row>
     <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="K2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="N2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="O2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="P2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -2488,28 +2507,28 @@
         <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>96</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>100</v>
@@ -2518,19 +2537,19 @@
         <v>101</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>107</v>
@@ -2538,13 +2557,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D169">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D201" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>Hidden_1_Tabla_3507253</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H169">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H201" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>Hidden_2_Tabla_3507257</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4:O169">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4:O201" xr:uid="{00000000-0002-0000-0A00-000002000000}">
       <formula1>Hidden_3_Tabla_35072514</formula1>
     </dataValidation>
   </dataValidations>
@@ -2553,7 +2572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2696,7 +2715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2914,7 +2933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3087,11 +3106,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView topLeftCell="Q3" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="R3" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3113,8 +3132,8 @@
     <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="93.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -3288,215 +3307,201 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="D4" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="H4" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I4" s="20">
         <v>1</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="K4" s="3">
+      <c r="J4" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="K4" s="20">
         <v>83</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="M4" s="3">
+      <c r="L4" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="M4" s="20">
         <v>13</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="20">
         <v>43830</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="P4" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="D5" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="H5" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I5" s="20">
         <v>1</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="K5" s="3">
+      <c r="J5" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="K5" s="20">
         <v>83</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="M5" s="3">
+      <c r="L5" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="M5" s="20">
         <v>13</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="20">
         <v>43830</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="P5" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="D6" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="H6" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I6" s="20">
         <v>1</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="K6" s="3">
+      <c r="J6" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="K6" s="20">
         <v>83</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="M6" s="3">
+      <c r="L6" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="M6" s="20">
         <v>13</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="20">
         <v>43830</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>273</v>
+      <c r="P6" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="S6" s="20" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C7:C201">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C4:C201" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Hidden_1_Tabla_3507242</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G7:G201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G201" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>Hidden_2_Tabla_3507246</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N7:N201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N201" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>Hidden_3_Tabla_35072413</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C4:C6">
-      <formula1>Hidden_1_Tabla_3507102</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G6">
-      <formula1>Hidden_2_Tabla_3507106</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N6">
-      <formula1>Hidden_3_Tabla_35071013</formula1>
-    </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="R4" r:id="rId1"/>
-    <hyperlink ref="R5" r:id="rId2"/>
-    <hyperlink ref="R6" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3639,12 +3644,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3859,7 +3862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4032,17 +4035,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -4064,43 +4067,43 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="20">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>297</v>
+      <c r="B4" s="21" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="46.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="83.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="88.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="81.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="78.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="91.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="100" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="69.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -4214,48 +4217,48 @@
         <v>226</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>96</v>
+        <v>227</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>99</v>
+        <v>230</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>102</v>
+        <v>233</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>104</v>
+        <v>235</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D143">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D201" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>Hidden_1_Tabla_5661003</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H143">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H201" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>Hidden_2_Tabla_5661007</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4:O143">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4:O201" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>Hidden_3_Tabla_56610014</formula1>
     </dataValidation>
   </dataValidations>
@@ -4264,7 +4267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4407,7 +4410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
